--- a/biology/Botanique/Bunias/Bunias.xlsx
+++ b/biology/Botanique/Bunias/Bunias.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bunias est un genre de plantes herbacées de la famille des Brassicacées. Ce nom vient du grec ancien βουνιας (bounias) qui désignait une sorte de navet et viendrait d'un mot du dialecte cyrénaïque, βουνός (bounós) « colline ; autel ; caillot »[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bunias est un genre de plantes herbacées de la famille des Brassicacées. Ce nom vient du grec ancien βουνιας (bounias) qui désignait une sorte de navet et viendrait d'un mot du dialecte cyrénaïque, βουνός (bounós) « colline ; autel ; caillot ».
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (13 mai 2021)[2] et NCBI  (13 mai 2021)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (13 mai 2021) et NCBI  (13 mai 2021) :
 Bunias erucago L. - Bunias fausse-roquette, érucage, érucago, érucague, fausse-roquette, masse au bedeau, roquette des champs...
 Bunias orientalis L. - Roquette d’Orient ou Bunias d’Orient
-Selon Catalogue of Life                                   (13 mai 2021)[4] :
+Selon Catalogue of Life                                   (13 mai 2021) :
 Bunias cochlearioides Murray
 Bunias erucago L.
 Bunias orientalis L.</t>
